--- a/data/tests/cluster_4.xlsx
+++ b/data/tests/cluster_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv2794c</t>
+          <t>Rv1483</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pptT Rv2794c</t>
+          <t>mabA fabG1 Rv1483 MTCY277.04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Transfers the 4'-phosphopantetheine moiety from coenzyme A to a Ser of acyl-carrier-protein (PubMed:9831524, PubMed:16709676, PubMed:25785780, PubMed:28203522). Involved in post-translational modification of various type-I polyketide synthases required for the formation of both mycolic acids and lipid virulence factors (PubMed:16709676). Acts on Pks13, Mas, PpsA, PpsB, PpsC and PpsD (PubMed:16709676, PubMed:28203522). Also acts on AcpM, the meromycolate extension acyl carrier protein (PubMed:25785780). In addition, is involved in the activation of the acyl carrier protein MbtL and the nonribosomal peptides synthases MbtB and MbtE, which are involved in the biosynthesis of the siderophore mycobactin (PubMed:9831524, PubMed:28203522). {ECO:0000269|PubMed:16709676, ECO:0000269|PubMed:25785780, ECO:0000269|PubMed:28203522, ECO:0000269|PubMed:9831524}.; FUNCTION: Required for the replication and survival of Mycobacterium during the acute and chronic phases of infection in mice. {ECO:0000269|PubMed:23308068}.</t>
+          <t>FUNCTION: Part of the mycobacterial fatty acid elongation system FAS-II, which is involved in mycolic acid biosynthesis (PubMed:11932442). Catalyzes the NADPH-dependent reduction of beta-ketoacyl derivatives, the second step of the FAS-II elongation cycle (PubMed:9802011, PubMed:11932442, PubMed:17059223, PubMed:18155153, PubMed:19685079). May preferentially metabolize long-chain substrates (C8-C20) (PubMed:11932442). Can use CoA derivatives as substrates in vitro (PubMed:9802011, PubMed:11932442, PubMed:17059223, PubMed:18155153). {ECO:0000269|PubMed:11932442, ECO:0000269|PubMed:17059223, ECO:0000269|PubMed:18155153, ECO:0000269|PubMed:19685079, ECO:0000269|PubMed:9802011}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv0884c</t>
+          <t>Rv3646c</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -540,12 +540,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>serC Rv0884c MTCY31.12c</t>
+          <t>topA Rv3646c MTCY15C10.06</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the reversible conversion of 3-phosphohydroxypyruvate to phosphoserine and of 3-hydroxy-2-oxo-4-phosphonooxybutanoate to phosphohydroxythreonine. {ECO:0000250}.</t>
+          <t>FUNCTION: Releases the supercoiling and torsional tension of DNA, which is introduced during the DNA replication and transcription, by transiently cleaving and rejoining one strand of the DNA duplex (PubMed:8921893, PubMed:20724443). Introduces a single-strand break via transesterification at a target site in duplex DNA. The scissile phosphodiester is attacked by the catalytic tyrosine of the enzyme, resulting in the formation of a DNA-(5'-phosphotyrosyl)-enzyme intermediate and the expulsion of a 3'-OH DNA strand. The free DNA strand then undergoes passage around the unbroken strand, thus removing DNA supercoils. Finally, in the religation step, the DNA 3'-OH attacks the covalent intermediate to expel the active-site tyrosine and restore the DNA phosphodiester backbone. {ECO:0000255|HAMAP-Rule:MF_00952, ECO:0000269|PubMed:20724443, ECO:0000269|PubMed:8921893}.; FUNCTION: The C-terminus (residues 622-934) inhibits RNA cleavage by MazF4. {ECO:0000269|PubMed:20724443}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,20 +555,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv2996c</t>
+          <t>Rv0884c</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>serA Rv2996c MTV012.10</t>
+          <t>serC Rv0884c MTCY31.12c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the reversible oxidation of 3-phospho-D-glycerate to 3-phosphonooxypyruvate, the first step of the phosphorylated L-serine biosynthesis pathway. Also catalyzes the reversible oxidation of 2-hydroxyglutarate to 2-oxoglutarate. {ECO:0000250|UniProtKB:P0A9T0}.</t>
+          <t>FUNCTION: Catalyzes the reversible conversion of 3-phosphohydroxypyruvate to phosphoserine and of 3-hydroxy-2-oxo-4-phosphonooxybutanoate to phosphohydroxythreonine. {ECO:0000250}.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -578,20 +578,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rv0685</t>
+          <t>Rv2438c</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tuf Rv0685 MTCY210.02</t>
+          <t>nadE Rv2438c MTCY428.08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNCTION: This protein promotes the GTP-dependent binding of aminoacyl-tRNA to the A-site of ribosomes during protein biosynthesis. {ECO:0000255|HAMAP-Rule:MF_00118}.</t>
+          <t>FUNCTION: Catalyzes the ATP-dependent amidation of deamido-NAD to form NAD. Uses L-glutamine as a nitrogen source. In vitro, can also use ammonia with comparable specific activity. {ECO:0000269|PubMed:15748981, ECO:0000269|PubMed:19270703, ECO:0000269|PubMed:9620974}.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rv3279c</t>
+          <t>Rv3014c</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -609,12 +609,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>birA Rv3279c</t>
+          <t>ligA lig Rv3014c MTV012.28c</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the transfer of biotin onto a conserved lysine residue of the biotin carboxyl carrier protein (BCCP) domain of acetyl-CoA carboxylase and converts it to active holo-BCCP (PubMed:18509457, PubMed:24723382). Forms an acyl-adenylate intermediate (PubMed:18509457, PubMed:24723382). Cannot use GTP or desthiobiotin (PubMed:18509457). {ECO:0000269|PubMed:18509457, ECO:0000269|PubMed:24723382}.</t>
+          <t>FUNCTION: DNA ligase that catalyzes the formation of phosphodiester linkages between 5'-phosphoryl and 3'-hydroxyl groups in double-stranded DNA using NAD as a coenzyme and as the energy source for the reaction. It is essential for DNA replication and repair of damaged DNA. {ECO:0000255|HAMAP-Rule:MF_01588, ECO:0000269|PubMed:14985346}.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rv2753c</t>
+          <t>Rv2210c</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -632,12 +632,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dapA Rv2753c MTV002.18c</t>
+          <t>ilvE Rv2210c MTCY190.21c</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the condensation of (S)-aspartate-beta-semialdehyde [(S)-ASA] and pyruvate to 4-hydroxy-tetrahydrodipicolinate (HTPA). {ECO:0000305|PubMed:18062777}.</t>
+          <t>FUNCTION: Catalyzes the reversible transfers of an amino group from glutamate to the alpha-ketoacid of the respective amino acid in the final step in the biosynthesis of branchedchain amino acids. The amino acids can be ranked in the following order with respect to their efficiency as amino donor: Leu &gt; Ile &gt; Val. {ECO:0000269|PubMed:20445230}.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -647,20 +647,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rv2373c</t>
+          <t>Rv3003c</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dnaJ2 Rv2373c MTCY27.07</t>
+          <t>ilvB1 Rv3003c MTV012.17c</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FUNCTION: Participates actively in the response to hyperosmotic and heat shock by preventing the aggregation of stress-denatured proteins and by disaggregating proteins, also in an autonomous, DnaK-independent fashion. Unfolded proteins bind initially to DnaJ; upon interaction with the DnaJ-bound protein, DnaK hydrolyzes its bound ATP, resulting in the formation of a stable complex. GrpE releases ADP from DnaK; ATP binding to DnaK triggers the release of the substrate protein, thus completing the reaction cycle. Several rounds of ATP-dependent interactions between DnaJ, DnaK and GrpE are required for fully efficient folding. Also involved, together with DnaK and GrpE, in the DNA replication of plasmids through activation of initiation proteins (By similarity). Inhibits the beta-lactamase and RNase activity of RNase J. {ECO:0000255|HAMAP-Rule:MF_01152, ECO:0000269|PubMed:21568871}.</t>
+          <t>FUNCTION: Catalyzes the conversion of 2 pyruvate molecules into acetolactate in the first common step of the biosynthetic pathway of the branched-amino acids such as leucine, isoleucine, and valine. Also involved in condensing pyruvate and 2-ketobutyrate to form 2-aceto-2-hydroxybutyrate. {ECO:0000269|PubMed:16111681, ECO:0000269|PubMed:20884690}.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -670,20 +670,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rv3356c</t>
+          <t>Rv3279c</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>folD Rv3356c</t>
+          <t>birA Rv3279c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the oxidation of 5,10-methylenetetrahydrofolate to 5,10-methenyltetrahydrofolate and then the hydrolysis of 5,10-methenyltetrahydrofolate to 10-formyltetrahydrofolate. {ECO:0000255|HAMAP-Rule:MF_01576}.</t>
+          <t>FUNCTION: Catalyzes the transfer of biotin onto a conserved lysine residue of the biotin carboxyl carrier protein (BCCP) domain of acetyl-CoA carboxylase and converts it to active holo-BCCP (PubMed:18509457, PubMed:24723382). Forms an acyl-adenylate intermediate (PubMed:18509457, PubMed:24723382). Cannot use GTP or desthiobiotin (PubMed:18509457). {ECO:0000269|PubMed:18509457, ECO:0000269|PubMed:24723382}.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rv1483</t>
+          <t>Rv2753c</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,12 +701,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mabA fabG1 Rv1483 MTCY277.04</t>
+          <t>dapA Rv2753c MTV002.18c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FUNCTION: Part of the mycobacterial fatty acid elongation system FAS-II, which is involved in mycolic acid biosynthesis (PubMed:11932442). Catalyzes the NADPH-dependent reduction of beta-ketoacyl derivatives, the second step of the FAS-II elongation cycle (PubMed:9802011, PubMed:11932442, PubMed:17059223, PubMed:18155153, PubMed:19685079). May preferentially metabolize long-chain substrates (C8-C20) (PubMed:11932442). Can use CoA derivatives as substrates in vitro (PubMed:9802011, PubMed:11932442, PubMed:17059223, PubMed:18155153). {ECO:0000269|PubMed:11932442, ECO:0000269|PubMed:17059223, ECO:0000269|PubMed:18155153, ECO:0000269|PubMed:19685079, ECO:0000269|PubMed:9802011}.</t>
+          <t>FUNCTION: Catalyzes the condensation of (S)-aspartate-beta-semialdehyde [(S)-ASA] and pyruvate to 4-hydroxy-tetrahydrodipicolinate (HTPA). {ECO:0000305|PubMed:18062777}.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -716,20 +716,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rv2995c</t>
+          <t>Rv2794c</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>leuB Rv2995c MTV012.09</t>
+          <t>pptT Rv2794c</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the oxidation of 3-carboxy-2-hydroxy-4-methylpentanoate (3-isopropylmalate) to 3-carboxy-4-methyl-2-oxopentanoate. The product decarboxylates to 4-methyl-2 oxopentanoate.</t>
+          <t>FUNCTION: Transfers the 4'-phosphopantetheine moiety from coenzyme A to a Ser of acyl-carrier-protein (PubMed:9831524, PubMed:16709676, PubMed:25785780, PubMed:28203522). Involved in post-translational modification of various type-I polyketide synthases required for the formation of both mycolic acids and lipid virulence factors (PubMed:16709676). Acts on Pks13, Mas, PpsA, PpsB, PpsC and PpsD (PubMed:16709676, PubMed:28203522). Also acts on AcpM, the meromycolate extension acyl carrier protein (PubMed:25785780). In addition, is involved in the activation of the acyl carrier protein MbtL and the nonribosomal peptides synthases MbtB and MbtE, which are involved in the biosynthesis of the siderophore mycobactin (PubMed:9831524, PubMed:28203522). {ECO:0000269|PubMed:16709676, ECO:0000269|PubMed:25785780, ECO:0000269|PubMed:28203522, ECO:0000269|PubMed:9831524}.; FUNCTION: Required for the replication and survival of Mycobacterium during the acute and chronic phases of infection in mice. {ECO:0000269|PubMed:23308068}.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -739,20 +739,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rv3014c</t>
+          <t>Rv0685</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ligA lig Rv3014c MTV012.28c</t>
+          <t>tuf Rv0685 MTCY210.02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FUNCTION: DNA ligase that catalyzes the formation of phosphodiester linkages between 5'-phosphoryl and 3'-hydroxyl groups in double-stranded DNA using NAD as a coenzyme and as the energy source for the reaction. It is essential for DNA replication and repair of damaged DNA. {ECO:0000255|HAMAP-Rule:MF_01588, ECO:0000269|PubMed:14985346}.</t>
+          <t>FUNCTION: This protein promotes the GTP-dependent binding of aminoacyl-tRNA to the A-site of ribosomes during protein biosynthesis. {ECO:0000255|HAMAP-Rule:MF_00118}.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rv0046c</t>
+          <t>Rv1599</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -770,12 +770,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ino1 Rv0046c MTCY21D4.09c</t>
+          <t>hisD Rv1599 MTCY336.05c</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the conversion of glucose 6-phosphate to 1D-myo-inositol 3-phosphate. {ECO:0000250}.</t>
+          <t>FUNCTION: Catalyzes the sequential NAD-dependent oxidations of L-histidinol to L-histidinaldehyde and then to L-histidine. {ECO:0000269|PubMed:21672513}.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rv1599</t>
+          <t>Rv0046c</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -793,12 +793,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hisD Rv1599 MTCY336.05c</t>
+          <t>ino1 Rv0046c MTCY21D4.09c</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the sequential NAD-dependent oxidations of L-histidinol to L-histidinaldehyde and then to L-histidine. {ECO:0000269|PubMed:21672513}.</t>
+          <t>FUNCTION: Catalyzes the conversion of glucose 6-phosphate to 1D-myo-inositol 3-phosphate. {ECO:0000250}.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -808,20 +808,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rv3003c</t>
+          <t>Rv2995c</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ilvB1 Rv3003c MTV012.17c</t>
+          <t>leuB Rv2995c MTV012.09</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the conversion of 2 pyruvate molecules into acetolactate in the first common step of the biosynthetic pathway of the branched-amino acids such as leucine, isoleucine, and valine. Also involved in condensing pyruvate and 2-ketobutyrate to form 2-aceto-2-hydroxybutyrate. {ECO:0000269|PubMed:16111681, ECO:0000269|PubMed:20884690}.</t>
+          <t>FUNCTION: Catalyzes the oxidation of 3-carboxy-2-hydroxy-4-methylpentanoate (3-isopropylmalate) to 3-carboxy-4-methyl-2-oxopentanoate. The product decarboxylates to 4-methyl-2 oxopentanoate.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -854,20 +854,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rv2210c</t>
+          <t>Rv3356c</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ilvE Rv2210c MTCY190.21c</t>
+          <t>folD Rv3356c</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the reversible transfers of an amino group from glutamate to the alpha-ketoacid of the respective amino acid in the final step in the biosynthesis of branchedchain amino acids. The amino acids can be ranked in the following order with respect to their efficiency as amino donor: Leu &gt; Ile &gt; Val. {ECO:0000269|PubMed:20445230}.</t>
+          <t>FUNCTION: Catalyzes the oxidation of 5,10-methylenetetrahydrofolate to 5,10-methenyltetrahydrofolate and then the hydrolysis of 5,10-methenyltetrahydrofolate to 10-formyltetrahydrofolate. {ECO:0000255|HAMAP-Rule:MF_01576}.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rv3137</t>
+          <t>Rv2373c</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -885,12 +885,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hisN impC Rv3137</t>
+          <t>dnaJ2 Rv2373c MTCY27.07</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the dephosphorylation of histidinol-phosphate to histidinol, the direct precursor of histidine. {ECO:0000250}.</t>
+          <t>FUNCTION: Participates actively in the response to hyperosmotic and heat shock by preventing the aggregation of stress-denatured proteins and by disaggregating proteins, also in an autonomous, DnaK-independent fashion. Unfolded proteins bind initially to DnaJ; upon interaction with the DnaJ-bound protein, DnaK hydrolyzes its bound ATP, resulting in the formation of a stable complex. GrpE releases ADP from DnaK; ATP binding to DnaK triggers the release of the substrate protein, thus completing the reaction cycle. Several rounds of ATP-dependent interactions between DnaJ, DnaK and GrpE are required for fully efficient folding. Also involved, together with DnaK and GrpE, in the DNA replication of plasmids through activation of initiation proteins (By similarity). Inhibits the beta-lactamase and RNase activity of RNase J. {ECO:0000255|HAMAP-Rule:MF_01152, ECO:0000269|PubMed:21568871}.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -900,20 +900,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rv2438c</t>
+          <t>Rv3137</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nadE Rv2438c MTCY428.08</t>
+          <t>hisN impC Rv3137</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the ATP-dependent amidation of deamido-NAD to form NAD. Uses L-glutamine as a nitrogen source. In vitro, can also use ammonia with comparable specific activity. {ECO:0000269|PubMed:15748981, ECO:0000269|PubMed:19270703, ECO:0000269|PubMed:9620974}.</t>
+          <t>FUNCTION: Catalyzes the dephosphorylation of histidinol-phosphate to histidinol, the direct precursor of histidine. {ECO:0000250}.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -923,23 +923,363 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rv3646c</t>
+          <t>Rv2996c</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>topA Rv3646c MTCY15C10.06</t>
+          <t>serA Rv2996c MTV012.10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FUNCTION: Releases the supercoiling and torsional tension of DNA, which is introduced during the DNA replication and transcription, by transiently cleaving and rejoining one strand of the DNA duplex (PubMed:8921893, PubMed:20724443). Introduces a single-strand break via transesterification at a target site in duplex DNA. The scissile phosphodiester is attacked by the catalytic tyrosine of the enzyme, resulting in the formation of a DNA-(5'-phosphotyrosyl)-enzyme intermediate and the expulsion of a 3'-OH DNA strand. The free DNA strand then undergoes passage around the unbroken strand, thus removing DNA supercoils. Finally, in the religation step, the DNA 3'-OH attacks the covalent intermediate to expel the active-site tyrosine and restore the DNA phosphodiester backbone. {ECO:0000255|HAMAP-Rule:MF_00952, ECO:0000269|PubMed:20724443, ECO:0000269|PubMed:8921893}.; FUNCTION: The C-terminus (residues 622-934) inhibits RNA cleavage by MazF4. {ECO:0000269|PubMed:20724443}.</t>
+          <t>FUNCTION: Catalyzes the reversible oxidation of 3-phospho-D-glycerate to 3-phosphonooxypyruvate, the first step of the phosphorylated L-serine biosynthesis pathway. Also catalyzes the reversible oxidation of 2-hydroxyglutarate to 2-oxoglutarate. {ECO:0000250|UniProtKB:P0A9T0}.</t>
         </is>
       </c>
       <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv0291</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mycP3 Rv0291 LH57_01590</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv0952</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sucD Rv0952 MTCY10D7.22c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FUNCTION: Succinyl-CoA synthetase functions in the citric acid cycle (TCA), coupling the hydrolysis of succinyl-CoA to the synthesis of either ATP or GTP and thus represents the only step of substrate-level phosphorylation in the TCA. The alpha subunit of the enzyme binds the substrates coenzyme A and phosphate, while succinate binding and nucleotide specificity is provided by the beta subunit. {ECO:0000255|HAMAP-Rule:MF_01988}.</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv3281</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>accE5 Rv3281</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FUNCTION: Stimulates activity of the AccA3/AccD5 biotin-dependent acyl-CoA carboxylase complex (PubMed:16354663, PubMed:16385038). Interacts with AccD5 and modulates its carboxylase activity for acetyl-CoA and propionyl-CoA (PubMed:16354663, PubMed:16385038). Inhibits activity of the AccA3/AccD6 complex (PubMed:17114269). Is also required for the activity of the long-chain acyl-CoA carboxylase (LCC) complex (PubMed:28222482). {ECO:0000269|PubMed:16354663, ECO:0000269|PubMed:16385038, ECO:0000269|PubMed:17114269, ECO:0000269|PubMed:28222482}.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv3244c</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lpqB Rv3244c</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FUNCTION: May modulate activity of the MtrAB system in controlling homeostasis of the cell wall and cell division (By similarity). Partially restores antibiotic resistance to M.smegmatis in which this gene has been disrupted. {ECO:0000250, ECO:0000269|PubMed:20233304}.</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv0189c</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ilvD Rv0189c MTCI28.28c</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv0011c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>crgA Rv0011c MTCY10H4.11c</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in cell division. Plays an important role in septal peptidoglycan synthesis and cell shape morphogenesis. May facilitate the recruitment of the peptidoglycan synthesis machinery to poles and septal zones and coordinate peptidoglycan synthesis at these sites. {ECO:0000255|HAMAP-Rule:MF_00631, ECO:0000269|PubMed:21531798, ECO:0000269|PubMed:23002219}.</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv1011</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ispE Rv1011 MTCI237.28</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the phosphorylation of the position 2 hydroxy group of 4-diphosphocytidyl-2C-methyl-D-erythritol. {ECO:0000255|HAMAP-Rule:MF_00061}.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv2194</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>qcrC Rv2194 MTCY190.05</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FUNCTION: Cytochrome b subunit of the cytochrome bc1 complex, an essential component of the respiratory electron transport chain required for ATP synthesis. The bc1 complex catalyzes the oxidation of ubiquinol and the reduction of cytochrome c in the respiratory chain. The bc1 complex operates through a Q-cycle mechanism that couples electron transfer to generation of the proton gradient that drives ATP synthesis. {ECO:0000305}.</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv0704</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>rplB Rv0704 MTCY210.23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FUNCTION: One of the primary rRNA binding proteins. Required for association of the 30S and 50S subunits to form the 70S ribosome, for tRNA binding and peptide bond formation. It has been suggested to have peptidyltransferase activity; this is somewhat controversial. Makes several contacts with the 16S rRNA in the 70S ribosome. {ECO:0000255|HAMAP-Rule:MF_01320}.</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv2421c</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>nadD Rv2421c MTCY428.26</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the reversible adenylation of nicotinate mononucleotide (NaMN) to nicotinic acid adenine dinucleotide (NaAD). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv2534c</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>efp Rv2534c MTCY159.22</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in peptide bond synthesis. Stimulates efficient translation and peptide-bond synthesis on native or reconstituted 70S ribosomes in vitro. Probably functions indirectly by altering the affinity of the ribosome for aminoacyl-tRNA, thus increasing their reactivity as acceptors for peptidyl transferase (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv3257c</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>pmmA Rv3257c</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv2182c</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rv2182c</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv1024</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rv1024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv0511</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hemD Rv0511</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv2017</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rv2017</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>4</v>
       </c>
     </row>
